--- a/data_fit/Soil_nitrate/data.xlsx
+++ b/data_fit/Soil_nitrate/data.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxia\Desktop\energy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangxin/Documents/生态学/写作/Generalized mechanism model for ecosystem hysteresis/Ecosystem-hysteresis/data_fit/Soil_nitrate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105CDD9A-EED0-4150-868D-B0D92AC0AD53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08AF432-74E7-CB46-897D-0F5802D48447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21825" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -100,14 +113,6 @@
     </r>
   </si>
   <si>
-    <t>log(x/2)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>log(x)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>data</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -117,12 +122,20 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>log_10(x)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>log_10(x/2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,21 +545,21 @@
   <dimension ref="B3:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="30.625" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:21">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:21">
       <c r="E5" t="s">
         <v>5</v>
       </c>
@@ -560,15 +573,15 @@
         <v>1</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -577,10 +590,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>3</v>
@@ -595,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:21">
       <c r="B7">
         <f>LOG10(E7/2)</f>
         <v>-0.97361698882915981</v>
@@ -625,19 +638,19 @@
         <v>-7.5173244953301499E-3</v>
       </c>
       <c r="P7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8">
         <f t="shared" ref="B8:B27" si="0">LOG10(E8/2)</f>
         <v>-0.9317168020130403</v>
@@ -679,7 +692,7 @@
         <v>-7.5173239999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:21">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>-0.92790422814442164</v>
@@ -721,7 +734,7 @@
         <v>-5.2124129999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:21">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>-0.87956079149033617</v>
@@ -763,7 +776,7 @@
         <v>-8.8128949999999994E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:21">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>-0.77612566243471082</v>
@@ -805,7 +818,7 @@
         <v>-8.9936730000000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:21">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>-0.75530900911205234</v>
@@ -847,7 +860,7 @@
         <v>-2.8268550000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:21">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>-0.66822982195280101</v>
@@ -889,7 +902,7 @@
         <v>0.27985865700000001</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:21" ht="17">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>-0.65641084296008234</v>
@@ -937,7 +950,7 @@
         <v>-1.413428E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:21">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>-0.62571962331770226</v>
@@ -979,7 +992,7 @@
         <v>0.12579505299999999</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:21">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>-0.56431812116359803</v>
@@ -1021,7 +1034,7 @@
         <v>0.267137809</v>
       </c>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:21">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>-0.53799229860078568</v>
@@ -1063,7 +1076,7 @@
         <v>4.0989399000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:21">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>-0.43064928132982661</v>
@@ -1105,7 +1118,7 @@
         <v>-1.413428E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:21">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>-0.30430058332380189</v>
@@ -1147,7 +1160,7 @@
         <v>0.29681978799999997</v>
       </c>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:21">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>-0.25872126272446672</v>
@@ -1189,7 +1202,7 @@
         <v>0.23462897499999999</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:21">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>-0.21725952190323741</v>
@@ -1231,7 +1244,7 @@
         <v>0.12155477000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:21">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>-1.1323344389797154E-2</v>
@@ -1273,7 +1286,7 @@
         <v>0.77597173100000005</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:21">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>5.5213332829445405E-2</v>
@@ -1315,7 +1328,7 @@
         <v>0.62332155499999997</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:21">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>0.23472279959185088</v>
@@ -1357,7 +1370,7 @@
         <v>-2.8268550000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:21">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>0.49084501719511708</v>
@@ -1399,7 +1412,7 @@
         <v>-1.413428E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:21">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>0.55434412909564956</v>
@@ -1441,7 +1454,7 @@
         <v>0.86501766800000002</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:21">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>0.61922262953025131</v>
@@ -1483,7 +1496,7 @@
         <v>0.118727915</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:21">
       <c r="G28">
         <f t="shared" si="2"/>
         <v>-0.37094955266521307</v>
@@ -1511,7 +1524,7 @@
         <v>0.87349823299999996</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:21">
       <c r="G29">
         <f t="shared" si="2"/>
         <v>-0.30516502518607619</v>
@@ -1533,7 +1546,7 @@
         <v>0.653003534</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:21">
       <c r="T30">
         <v>-0.30516502499999998</v>
       </c>
@@ -1542,7 +1555,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="J11:K29">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J11:K29">
     <sortCondition ref="J11:J29"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1557,7 +1570,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
